--- a/lab1/data_dictionary.xlsx
+++ b/lab1/data_dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="69">
   <si>
     <t>table_name</t>
   </si>
@@ -221,16 +221,38 @@
   </si>
   <si>
     <t>on update or delete: cascade</t>
+  </si>
+  <si>
+    <t>unique and not NULL</t>
+  </si>
+  <si>
+    <t>not NULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,13 +275,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -702,13 +736,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -758,7 +793,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -862,7 +897,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
         <v>42</v>
@@ -1018,7 +1053,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
         <v>47</v>
@@ -1148,7 +1183,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
         <v>50</v>
@@ -1174,7 +1209,7 @@
         <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
         <v>42</v>
@@ -1200,7 +1235,7 @@
         <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
         <v>51</v>
@@ -1226,7 +1261,7 @@
         <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
         <v>47</v>
@@ -1408,7 +1443,7 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
         <v>63</v>
@@ -1468,6 +1503,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
